--- a/Error-Compensation-Attacks/Error-Compensation-Figures/ErrComp_TimeDiff.xlsx
+++ b/Error-Compensation-Attacks/Error-Compensation-Figures/ErrComp_TimeDiff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landon\Documents\GitHub\Convolutional-Neural-Networks\Error-Compensation-Attacks\Error-Compensation-Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C395169-75C7-4971-8AF2-23E714838083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3088AB70-8624-4370-86F6-2C3732CD6C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="1490" windowWidth="28800" windowHeight="15460" xr2:uid="{69F39440-B28D-4B8A-8A04-6440A4929883}"/>
+    <workbookView xWindow="4450" yWindow="4270" windowWidth="30340" windowHeight="15430" xr2:uid="{69F39440-B28D-4B8A-8A04-6440A4929883}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,28 +56,28 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Approximate 2</t>
-  </si>
-  <si>
-    <t>Approximate 4</t>
-  </si>
-  <si>
-    <t>Approximate 6</t>
-  </si>
-  <si>
-    <t>Approximate 8</t>
-  </si>
-  <si>
-    <t>Compensate 2</t>
-  </si>
-  <si>
-    <t>Compensate 4</t>
-  </si>
-  <si>
-    <t>Compensate 6</t>
-  </si>
-  <si>
-    <t>Compensate 8</t>
+    <t>Approximated 2</t>
+  </si>
+  <si>
+    <t>Approximated 4</t>
+  </si>
+  <si>
+    <t>Approximated 6</t>
+  </si>
+  <si>
+    <t>Approximated 8</t>
+  </si>
+  <si>
+    <t>Compensated 2</t>
+  </si>
+  <si>
+    <t>Compensated 4</t>
+  </si>
+  <si>
+    <t>Compensated 6</t>
+  </si>
+  <si>
+    <t>Compensated 8</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
